--- a/game test_20160712.xlsx
+++ b/game test_20160712.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.1\usb_A1\Rayan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t>Sharp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +153,10 @@
   </si>
   <si>
     <t>Only operated by mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,7 +601,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.625" defaultRowHeight="16.5"/>
@@ -943,6 +942,24 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
